--- a/keywords.xlsx
+++ b/keywords.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>水杯</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -39,6 +39,18 @@
   </si>
   <si>
     <t>關鍵字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工商日誌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>promotional goods</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>custimized good</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -369,9 +381,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -395,6 +409,21 @@
         <v>2</v>
       </c>
     </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
